--- a/Issues Report_G1.xlsx
+++ b/Issues Report_G1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>Title</t>
   </si>
@@ -79,13 +79,13 @@
     <t>Template bị config khi đưa vào netbean</t>
   </si>
   <si>
-    <t xml:space="preserve">Database vẫn chưa hoàn chỉnh phải thêm bảng Guest, Type và Size </t>
+    <t xml:space="preserve">Database need to add table Guest, Type and Size </t>
   </si>
   <si>
     <t>Controller of register</t>
   </si>
   <si>
-    <t>triển khai code controll của screen của register</t>
+    <t>Code controller of register</t>
   </si>
   <si>
     <t>Đức</t>
@@ -118,25 +118,40 @@
     <t>Home Page vẫn đang fix cứng</t>
   </si>
   <si>
-    <t>Cần đẩy được dữ liệu lên home page</t>
+    <t>Push real data to home page</t>
   </si>
   <si>
     <t>Phân trang search TV vẫn chưa chuẩn</t>
   </si>
   <si>
+    <t>Làm tiếp Add to cart của customer</t>
+  </si>
+  <si>
+    <t>Write SRS Functional Requirements</t>
+  </si>
+  <si>
     <t>Doing</t>
   </si>
   <si>
-    <t>Làm tiếp CRUD của customer</t>
-  </si>
-  <si>
-    <t>Write SRS Functional Requirements</t>
-  </si>
-  <si>
     <t>Edit SRS OverView</t>
   </si>
   <si>
-    <t>Đổi ký tự "..." thảnh etc, sửa Screen flow gần nhau, dễ nhìn hơn</t>
+    <t>change symbol "..." into etc, fix Screen flow</t>
+  </si>
+  <si>
+    <t>Edit SDS OverView</t>
+  </si>
+  <si>
+    <t>Finding about sequence diagram</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Export order to excel</t>
+  </si>
+  <si>
+    <t>Finding to export order to excel function</t>
   </si>
 </sst>
 </file>
@@ -144,12 +159,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -205,6 +220,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,37 +290,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,30 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,45 +335,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +351,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -377,115 +392,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,61 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,11 +601,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,7 +635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,17 +679,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,162 +698,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -848,40 +863,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,7 +1229,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1397,7 +1412,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" ht="31.2" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1609,7 +1624,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
@@ -1625,9 +1640,9 @@
       <c r="K14" s="4"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="31.2" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1635,10 +1650,10 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G15" s="10">
         <v>44709.4851736111</v>
@@ -1653,7 +1668,7 @@
     </row>
     <row r="16" ht="31.2" spans="1:12">
       <c r="A16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1661,7 +1676,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
@@ -1677,7 +1692,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" ht="31.2" spans="1:12">
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1705,19 +1720,19 @@
       <c r="K17" s="4"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" ht="31.2" spans="1:12">
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
@@ -1727,16 +1742,22 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="11"/>
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4">
+        <v>19</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>

--- a/Issues Report_G1.xlsx
+++ b/Issues Report_G1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
   <si>
     <t>Title</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Iteration 1</t>
   </si>
   <si>
+    <t>Task</t>
+  </si>
+  <si>
     <t>Tạo database</t>
   </si>
   <si>
@@ -79,13 +82,13 @@
     <t>Template bị config khi đưa vào netbean</t>
   </si>
   <si>
-    <t xml:space="preserve">Database need to add table Guest, Type and Size </t>
+    <t xml:space="preserve">Database vẫn chưa hoàn chỉnh phải thêm bảng Guest, Type và Size </t>
   </si>
   <si>
     <t>Controller of register</t>
   </si>
   <si>
-    <t>Code controller of register</t>
+    <t>triển khai code controll của screen của register</t>
   </si>
   <si>
     <t>Đức</t>
@@ -94,9 +97,6 @@
     <t>Login by Gmail accounts</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>register</t>
   </si>
   <si>
@@ -106,9 +106,15 @@
     <t>Forgot Pass word</t>
   </si>
   <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
     <t>Search and sort TV</t>
   </si>
   <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
     <t>Iteration 2</t>
   </si>
   <si>
@@ -118,53 +124,124 @@
     <t>Home Page vẫn đang fix cứng</t>
   </si>
   <si>
-    <t>Push real data to home page</t>
+    <t>Cần đẩy được dữ liệu lên home page</t>
   </si>
   <si>
     <t>Phân trang search TV vẫn chưa chuẩn</t>
   </si>
   <si>
-    <t>Làm tiếp Add to cart của customer</t>
+    <t>Search product</t>
+  </si>
+  <si>
+    <t>Làm tiếp CRUD của customer</t>
   </si>
   <si>
     <t>Write SRS Functional Requirements</t>
   </si>
   <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>Edit SRS OverView</t>
   </si>
   <si>
-    <t>change symbol "..." into etc, fix Screen flow</t>
-  </si>
-  <si>
-    <t>Edit SDS OverView</t>
-  </si>
-  <si>
-    <t>Finding about sequence diagram</t>
+    <t>Đổi ký tự "..." thảnh etc, sửa Screen flow gần nhau, dễ nhìn hơn</t>
+  </si>
+  <si>
+    <t>Edit front end</t>
+  </si>
+  <si>
+    <t>Chỉnh phần "about us" bé lại</t>
+  </si>
+  <si>
+    <t>14/02/2023</t>
   </si>
   <si>
     <t>Iteration 3</t>
   </si>
   <si>
-    <t>Export order to excel</t>
-  </si>
-  <si>
-    <t>Finding to export order to excel function</t>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Edit font Thank you after buy product</t>
+  </si>
+  <si>
+    <t>Đổi sang tiếng việt</t>
+  </si>
+  <si>
+    <t>Chiến</t>
+  </si>
+  <si>
+    <t>17/02/2023</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Edit Change pass word function</t>
+  </si>
+  <si>
+    <t>thêm popup message nếu đổi mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>21/02/2023</t>
+  </si>
+  <si>
+    <t>Edit font text</t>
+  </si>
+  <si>
+    <t>Đổi hết trang thành tiếng việt có dấu</t>
+  </si>
+  <si>
+    <t>28/02/2023</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Edit price</t>
+  </si>
+  <si>
+    <t>xóa kí hiệu đ sau giá của sản phẩm</t>
+  </si>
+  <si>
+    <t>Product detail</t>
+  </si>
+  <si>
+    <t>Edit SDS Sequence diagram</t>
+  </si>
+  <si>
+    <t>Sửa lại sequence diagram</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Edit Thank you after buy product</t>
+  </si>
+  <si>
+    <t>Đổi không để thành trang có từ Cam on</t>
+  </si>
+  <si>
+    <t>Edit Manage user</t>
+  </si>
+  <si>
+    <t>Admin chỉ sửa thông tin của nhân viên còn khách hàng thì block hoặc unblock</t>
+  </si>
+  <si>
+    <t>Manage user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -221,12 +298,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,8 +350,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,6 +390,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -257,40 +405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,34 +419,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,28 +441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -392,25 +469,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,157 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,17 +678,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,11 +737,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,175 +775,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -866,7 +943,7 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,35 +952,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1224,12 +1292,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1239,7 +1307,8 @@
     <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.8333333333333" style="1"/>
-    <col min="7" max="8" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.8333333333333" style="1"/>
     <col min="10" max="10" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
@@ -1277,10 +1346,10 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -1288,6 +1357,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="D2" s="5"/>
@@ -1300,20 +1370,25 @@
       <c r="G2" s="6">
         <v>44693.0552314815</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7">
+        <v>45261</v>
+      </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="19"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
+        <f t="shared" ref="C3:C12" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="D3" s="5"/>
@@ -1321,25 +1396,30 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6">
         <v>44694.6398263889</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7">
+        <v>45261</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="19"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" s="5"/>
@@ -1352,20 +1432,25 @@
       <c r="G4" s="6">
         <v>44698.0233796296</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7">
+        <v>45261</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" s="5"/>
@@ -1373,25 +1458,30 @@
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6">
         <v>44698.0236342593</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="7">
+        <v>45261</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" ht="31.2" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D6" s="5"/>
@@ -1399,28 +1489,33 @@
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6">
         <v>44698.0239467593</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="7">
+        <v>44987</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" ht="31.2" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
@@ -1432,71 +1527,83 @@
       <c r="G7" s="6">
         <v>44698.0262268518</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>44987</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="19"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6">
         <v>44698.0450925926</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="10">
+        <v>45201</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10">
+        <v>25</v>
+      </c>
+      <c r="G9" s="11">
         <v>44700.0428819444</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="10">
+        <v>45201</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
@@ -1504,27 +1611,30 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11">
         <v>44707.0356134259</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="10">
+        <v>45201</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
@@ -1532,33 +1642,41 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11">
         <v>44707.0356134259</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="10">
+        <v>45201</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
@@ -1567,30 +1685,33 @@
       <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>44707.0356134259</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
-        <v>13</v>
+        <f t="shared" ref="C13:C26" si="1">ROW()-1</f>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
@@ -1599,128 +1720,152 @@
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="11">
         <v>44709.405462963</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" ht="31.2" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="10">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11">
         <v>44709.4848958333</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="10">
+        <v>44987</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" ht="31.2" spans="1:12">
+        <v>33</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="10">
+        <v>25</v>
+      </c>
+      <c r="G15" s="11">
         <v>44709.4851736111</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="10">
+        <v>44987</v>
+      </c>
       <c r="I15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="19"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" ht="31.2" spans="1:12">
-      <c r="A16" s="14" t="s">
-        <v>37</v>
+      <c r="A16" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="11">
+        <v>44709.4851736111</v>
+      </c>
+      <c r="H16" s="10">
+        <v>45109</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" ht="31.2" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
         <v>16</v>
-      </c>
-      <c r="G16" s="10">
-        <v>44709.4851736111</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>17</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="10">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11">
         <v>44709.4851736111</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="10">
+        <v>45109</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" ht="31.2" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1728,213 +1873,306 @@
         <v>42</v>
       </c>
       <c r="C18" s="4">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="10">
+        <v>17</v>
+      </c>
+      <c r="G18" s="11">
         <v>44709.4851736111</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="10">
+        <v>45201</v>
+      </c>
       <c r="I18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11">
+        <v>44709.4851736111</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4">
+      <c r="I19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" ht="31.2" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="19"/>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11">
+        <v>44709.4851736111</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="19"/>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="11">
+        <v>44709.4851736111</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="19"/>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="11">
+        <v>44709.4851736111</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="19"/>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="11">
+        <v>44710.4851736111</v>
+      </c>
+      <c r="H23" s="10">
+        <v>44988</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="19"/>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="11">
+        <v>44711.4851736111</v>
+      </c>
+      <c r="H24" s="10">
+        <v>44988</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="11">
+        <v>44712.4851736111</v>
+      </c>
+      <c r="H25" s="10">
+        <v>44988</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" ht="31.2" spans="1:12">
+      <c r="A26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="19"/>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="11">
+        <v>44713.4851736111</v>
+      </c>
+      <c r="H26" s="10">
+        <v>45233</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
